--- a/resources/document/테이블명세서.xlsx
+++ b/resources/document/테이블명세서.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\98. 개인공유\이영민\우체통\마니테크 사원관리\2. 테이블 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58ED2E9-4EA0-4BD2-B4C2-E7CD51CF2A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB8D43F-6745-449C-A4CD-0FEE09F87F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30780" yWindow="2880" windowWidth="26820" windowHeight="12765" activeTab="1" xr2:uid="{CEEBD771-77E0-4110-A9DB-D5DA6F06488A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CEEBD771-77E0-4110-A9DB-D5DA6F06488A}"/>
   </bookViews>
   <sheets>
     <sheet name="TB_EMPLOYEES" sheetId="1" r:id="rId1"/>
     <sheet name="TB_PROJECTS" sheetId="2" r:id="rId2"/>
-    <sheet name="TB_CODE" sheetId="3" r:id="rId3"/>
+    <sheet name="TB_CALL_HISTORY" sheetId="4" r:id="rId3"/>
+    <sheet name="TB_CODE" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="113">
   <si>
     <t>Data Type</t>
   </si>
@@ -366,6 +367,52 @@
   </si>
   <si>
     <t>VARCHAR2(600 BYTE)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REG_DATE</t>
+  </si>
+  <si>
+    <t>VARCHAR2(8 BYTE)</t>
+  </si>
+  <si>
+    <t>HISTORY_ID</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>VARCHAR2(500 BYTE)</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>등록일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담이력ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조치내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일시</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -799,7 +846,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1093,7 +1140,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.59765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1508,6 +1555,167 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C287AC5D-0512-49C1-B4C9-DADCFE55BBBB}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72EB7ED-51BE-4FA5-B185-094FCA756597}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E5"/>
@@ -1599,5 +1807,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>